--- a/databases/ProductsBladder.xlsx
+++ b/databases/ProductsBladder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D11CB-7E71-4BF8-9FBB-23052D5C9EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77255C24-08B7-4794-88FD-E9EE8FF8499E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="2863" windowWidth="11023" windowHeight="6926" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20040" yWindow="6309" windowWidth="11023" windowHeight="6925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - products_bladder" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
   <si>
     <t>all_text</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>PZN</t>
+  </si>
+  <si>
+    <t>Cystinol</t>
+  </si>
+  <si>
+    <t>Angocin</t>
   </si>
 </sst>
 </file>
@@ -1255,127 +1261,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1563,6 +1448,74 @@
         <name val="Helvetica Neue"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1762,25 +1715,78 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="11"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="10"/>
         </left>
         <right style="thin">
           <color indexed="10"/>
         </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1865,25 +1871,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDE7A5E8-6609-4B1C-809B-5D438FE6FD36}" name="Tabelle1" displayName="Tabelle1" ref="A1:M38" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="A1:M38" xr:uid="{CD48D51E-0C74-4AAC-A520-108A32BF2A00}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M38">
-    <sortCondition ref="A1:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDE7A5E8-6609-4B1C-809B-5D438FE6FD36}" name="Tabelle1" displayName="Tabelle1" ref="A1:M40" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:M40" xr:uid="{CD48D51E-0C74-4AAC-A520-108A32BF2A00}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BB07A8F3-EABC-459B-8D14-AD42A6DB556E}" name="title" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A115E096-DF13-42E6-AA0E-F4896F5862DB}" name="PZN" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{943FB8EF-C304-45C9-BFFB-A3931E9E87EF}" name="Dos" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B63991CE-C57F-4D6A-B0D4-BC892C8DDEBD}" name="MedForm" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C46678B1-AAD0-4E8A-9A5A-68B036B00103}" name="Category" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C992F58A-E274-4F95-BE42-31A2DA2379B1}" name="API" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{D60879C2-A1F9-4298-A332-C3E6B848F20F}" name="ingredients" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5DF17C66-F421-449D-9CDB-D98685CDE84D}" name="all_text" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{68C1AC5F-D201-4673-AB0F-E5C5B0011FFC}" name="image" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{9CAF317E-24BB-4B78-8251-3B92C5F9195E}" name="price" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{826F4C4C-8B88-453E-ADF5-34CECD80BB4E}" name="producer" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{4E376BAD-C1E7-49E9-A9BF-FC70A8C1159C}" name="size" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{98BCB5BC-0884-4C02-B152-38FBEB59A142}" name="uvp" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{BB07A8F3-EABC-459B-8D14-AD42A6DB556E}" name="title" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A115E096-DF13-42E6-AA0E-F4896F5862DB}" name="PZN" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{943FB8EF-C304-45C9-BFFB-A3931E9E87EF}" name="Dos" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{B63991CE-C57F-4D6A-B0D4-BC892C8DDEBD}" name="MedForm" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C46678B1-AAD0-4E8A-9A5A-68B036B00103}" name="Category" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C992F58A-E274-4F95-BE42-31A2DA2379B1}" name="API" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D60879C2-A1F9-4298-A332-C3E6B848F20F}" name="ingredients" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5DF17C66-F421-449D-9CDB-D98685CDE84D}" name="all_text" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{68C1AC5F-D201-4673-AB0F-E5C5B0011FFC}" name="image" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9CAF317E-24BB-4B78-8251-3B92C5F9195E}" name="price" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{826F4C4C-8B88-453E-ADF5-34CECD80BB4E}" name="producer" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4E376BAD-C1E7-49E9-A9BF-FC70A8C1159C}" name="size" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{98BCB5BC-0884-4C02-B152-38FBEB59A142}" name="uvp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2964,10 +2970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.3046875" defaultRowHeight="19.95" customHeight="1"/>
@@ -3611,267 +3617,231 @@
     </row>
     <row r="18" spans="1:13" ht="20.05" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="B18" s="9">
-        <v>1174860</v>
+        <v>1000000</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="8">
-        <v>31.91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="16">
-        <v>42.9</v>
-      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" ht="20.05" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B19" s="9">
-        <v>9612319</v>
+        <v>1000002</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>154</v>
-      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="8">
-        <v>21.93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="16">
-        <v>29.95</v>
-      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="20.05" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B20" s="9">
-        <v>8036279</v>
+        <v>1174860</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J20" s="8">
-        <v>0.79</v>
+        <v>31.91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="M20" s="16">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>134</v>
+      <c r="A21" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B21" s="9">
-        <v>15390917</v>
+        <v>9612319</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I21" s="6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="J21" s="8">
-        <v>20.67</v>
+        <v>21.93</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="M21" s="16">
-        <v>24.9</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.05" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B22" s="9">
-        <v>15785426</v>
+        <v>8036279</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J22" s="8">
-        <v>35.31</v>
+        <v>0.79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="16">
-        <v>45.99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>117</v>
+      <c r="A23" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B23" s="9">
-        <v>12894959</v>
+        <v>15390917</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="J23" s="8">
+        <v>20.67</v>
+      </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="M23" s="16">
-        <v>38.9</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20.05" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B24" s="9">
-        <v>13832535</v>
+        <v>15785426</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="J24" s="8">
-        <v>12.73</v>
+        <v>35.31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="M24" s="16">
-        <v>14.8</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
+      <c r="A25" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="B25" s="9">
-        <v>16144617</v>
+        <v>12894959</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
@@ -3880,218 +3850,216 @@
       <c r="E25" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="I25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="8">
-        <v>16.329999999999998</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="M25" s="16">
-        <v>21.49</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20.05" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" s="9">
-        <v>9302984</v>
+        <v>13832535</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>154</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="J26" s="8">
+        <v>12.73</v>
+      </c>
       <c r="K26" s="7" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M26" s="16">
-        <v>39.950000000000003</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>146</v>
+      <c r="A27" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>162978</v>
+        <v>16144617</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="H27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="J27" s="8">
-        <v>21.53</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M27" s="16">
-        <v>27.9</v>
+        <v>21.49</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="20.05" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B28" s="9">
-        <v>6679369</v>
+        <v>9302984</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="7" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="8">
-        <v>3.95</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="J28" s="10"/>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="M28" s="16">
-        <v>4.49</v>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20.05" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B29" s="9">
-        <v>10109198</v>
+        <v>162978</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="7" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="J29" s="8">
+        <v>21.53</v>
+      </c>
       <c r="K29" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M29" s="16">
-        <v>4.75</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="20.05" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30" s="9">
-        <v>10109206</v>
+        <v>6679369</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G30" s="10"/>
       <c r="H30" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J30" s="8">
-        <v>3.71</v>
+        <v>3.95</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M30" s="16">
-        <v>4.75</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="20.05" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B31" s="9">
-        <v>1884722</v>
+        <v>10109198</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -4101,75 +4069,73 @@
         <v>162</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="8">
-        <v>3.44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="M31" s="16">
-        <v>4.1500000000000004</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.05" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B32" s="9">
-        <v>15821091</v>
+        <v>10109206</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="J32" s="8">
-        <v>1.95</v>
+        <v>3.71</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="M32" s="16">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="20.05" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B33" s="9">
-        <v>15571323</v>
+        <v>1884722</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
@@ -4179,36 +4145,36 @@
         <v>162</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J33" s="8">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="M33" s="16">
-        <v>3.9</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="20.05" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9">
-        <v>2094376</v>
+        <v>15821091</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
@@ -4218,210 +4184,288 @@
         <v>162</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J34" s="8">
-        <v>2.73</v>
+        <v>1.95</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M34" s="16">
-        <v>3.9</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.05" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B35" s="9">
-        <v>12365847</v>
+        <v>15571323</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="H35" s="7" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="J35" s="8">
-        <v>5.22</v>
+        <v>3.24</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M35" s="16">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>50</v>
+      <c r="A36" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="9">
-        <v>548784</v>
+        <v>2094376</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I36" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J36" s="8">
-        <v>6.22</v>
+        <v>2.73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M36" s="16">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>103</v>
+      <c r="A37" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B37" s="9">
-        <v>11128789</v>
+        <v>12365847</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="J37" s="8">
-        <v>15.89</v>
+        <v>5.22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="M37" s="16">
-        <v>27.49</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="20.05" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="9">
+        <v>548784</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="20.05" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="9">
+        <v>11128789</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="8">
+        <v>15.89</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="16">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20.05" customHeight="1">
+      <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B40" s="19">
         <v>692400</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G40" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H40" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I40" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J40" s="21">
         <v>6.88</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K40" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L40" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M40" s="23">
         <v>8.2899999999999991</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="I4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I36" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="I17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="I3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="I8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="I5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="I12" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="I16" r:id="rId31" xr:uid="{C3B9D4C5-69AC-48A2-9D65-E4C31B307540}"/>
     <hyperlink ref="I15" r:id="rId32" xr:uid="{EFCD7A9E-D3BA-4B82-B4C0-4056C1A70C75}"/>
   </hyperlinks>
